--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722943.9345046656</v>
+        <v>721648.7101564091</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621781</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.75695111</v>
+        <v>3772361.273823853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7424982.096736782</v>
+        <v>8481747.276878104</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>266.3785147582306</v>
+        <v>27.03006361550342</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>15.0299058421965</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>118.1223628435935</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>388.3430365919147</v>
       </c>
     </row>
     <row r="6">
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.6909096174032561</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>404.6482308219121</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1427,16 +1429,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>341.9465592055269</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1673,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.2070827997873</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>85.25432609134864</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1910,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>190.6850494015357</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.0380268246975</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2323,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>378.9769832968749</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.992656351960202</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>309.8783980016761</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>54.09736785857407</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2728,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>121.6740993227961</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3007,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>229.2663389906581</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>308.3558640927702</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>54.68688746169106</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>119.5236191444601</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>39.64108301376388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3979,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>7.542957171712939</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.15339398280511</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258842</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>397.1860551390245</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C2" t="n">
-        <v>397.1860551390245</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D2" t="n">
-        <v>397.1860551390245</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="E2" t="n">
-        <v>397.1860551390245</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="F2" t="n">
-        <v>397.1860551390245</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4328,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>176.0078249962696</v>
+      </c>
+      <c r="M2" t="n">
+        <v>176.0078249962696</v>
+      </c>
+      <c r="N2" t="n">
         <v>692.8507596625949</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4358,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1208.343907855424</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.4072348035139</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>757.1375129088235</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C5" t="n">
-        <v>757.1375129088235</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D5" t="n">
-        <v>352.673583001884</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>352.673583001884</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>352.673583001884</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4565,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1968.93876345627</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1968.93876345627</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1968.93876345627</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1568.295365625223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.358692573313</v>
+        <v>1695.988587952916</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N6" t="n">
-        <v>1738.409816796118</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796118</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
         <v>1738.409816796118</v>
@@ -4747,25 +4749,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1485.891263925851</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
         <v>1318.798642324783</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.033101815613</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1273.569171908673</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>859.22895642557</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1782.662456633885</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>853.3655611679142</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>853.3655611679142</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>853.3655611679142</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>439.0253456848109</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>439.0253456848109</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>439.0253456848109</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915616</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.011766457887</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>1866.047797426961</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>1608.987305686471</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>1608.987305686471</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>1608.987305686471</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1263.586740832404</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1263.586740832404</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>537.7254774811262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>352.673583001884</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>352.673583001884</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>352.673583001884</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>352.673583001884</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>352.673583001884</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.416726816583</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>1354.656425951752</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>954.0130281207041</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>762.8947626663735</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1536.527113411121</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X16" t="n">
-        <v>224.1971997769844</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.1971997769844</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>761.4018671090519</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>761.4018671090519</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>761.4018671090519</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>761.4018671090519</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>761.4018671090519</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>352.673583001884</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>41.76508562960205</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>558.6080202959273</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>692.8507596625949</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>1209.69369432892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.416726816583</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>1354.656425951752</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>954.0130281207041</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>761.4018671090519</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650823</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593073</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936201</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960218</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960218</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959274</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>209.5897435862967</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C22" t="n">
-        <v>209.5897435862967</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D22" t="n">
-        <v>209.5897435862967</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
         <v>209.5897435862967</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1153.452678737507</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>879.5669336770293</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W22" t="n">
-        <v>600.4972691859036</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X22" t="n">
-        <v>362.153407045587</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.5897435862967</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
         <v>490.5039577458317</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L24" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M24" t="n">
-        <v>549.0499539559215</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N24" t="n">
-        <v>549.0499539559215</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O24" t="n">
-        <v>1228.182536368609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>694.1016009487056</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>694.1016009487056</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>694.1016009487056</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W25" t="n">
-        <v>1157.181161700257</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X25" t="n">
-        <v>918.8372995599409</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y25" t="n">
-        <v>694.1016009487056</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2452.075282119331</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6260,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2862.29646178382</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1402.950983437843</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.328909494509</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1155.873223426303</v>
+        <v>790.2872908984635</v>
       </c>
       <c r="C28" t="n">
-        <v>984.7798509880195</v>
+        <v>790.2872908984635</v>
       </c>
       <c r="D28" t="n">
-        <v>825.2852063109294</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E28" t="n">
-        <v>664.374391179249</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F28" t="n">
-        <v>499.7432652898402</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
-        <v>332.4928742153836</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W28" t="n">
-        <v>1343.572929820347</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="X28" t="n">
-        <v>1343.572929820347</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="Y28" t="n">
-        <v>1343.572929820347</v>
+        <v>790.2872908984635</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3636.59135101265</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3357.521686521525</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3357.521686521525</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>873.3089913790386</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6786,13 +6788,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>966.9017898022406</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>1670.858880348135</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1167.341116836419</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>884.5429693825431</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>610.6572243220651</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>331.5875598309394</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>93.2436976906228</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="35">
@@ -6962,22 +6964,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4269.84331758475</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3920.005762921231</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y35" t="n">
         <v>2959.412569640574</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3084.569701873628</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4011.405617385543</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C37" t="n">
-        <v>3840.31224494726</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="D37" t="n">
-        <v>3680.81760027017</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="E37" t="n">
-        <v>3519.906785138489</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="F37" t="n">
-        <v>3355.27565924908</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="G37" t="n">
-        <v>3188.025268174624</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W37" t="n">
-        <v>4662.18488453114</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X37" t="n">
-        <v>4423.841022390823</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y37" t="n">
-        <v>4199.105323779588</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>2945.549711724955</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>3788.526792419522</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9746261193704</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9746261193704</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9746261193704</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9746261193704</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>213.9746261193704</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>213.9746261193704</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W40" t="n">
-        <v>640.0181946537314</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X40" t="n">
-        <v>401.6743325134148</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y40" t="n">
-        <v>401.6743325134148</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7439,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7597,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>308.996436142379</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.1357131590178</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C44" t="n">
-        <v>877.1357131590178</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D44" t="n">
-        <v>877.1357131590178</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E44" t="n">
-        <v>462.7954976759145</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1054.568412147452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1571.411346813777</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1695.912714533713</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1695.912714533713</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1688.293565875417</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1688.293565875417</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1287.356892823507</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936201</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>508.1659581184966</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.008892784822</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N45" t="n">
-        <v>1541.851827451147</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O45" t="n">
-        <v>2058.694762117472</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2058.694762117472</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.3847151048558</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>749.2913426665723</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>589.7966979894823</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>428.8858828578017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>264.254756968393</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>191.3725408241454</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>1571.163982250452</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V46" t="n">
-        <v>1571.163982250452</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.163982250452</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.820120110135</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y46" t="n">
-        <v>1108.0844214989</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8058,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>425.4271248393443</v>
+        <v>502.6011371814506</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M5" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>203.4176284083937</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>262.4384495236158</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>531.8357165796273</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>593.882383535937</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>359.4030239885898</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>555.4891820648243</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>594.2603172363632</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9014,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>228.5110173896169</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>214.4521170566532</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>555.2297277821215</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9717,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>743.7439864875635</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9896,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>414.1811974913928</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>574.4763360814417</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10367,7 +10369,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10434,16 +10436,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10589,7 +10591,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
@@ -10671,7 +10673,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.174398074769</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
@@ -10899,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>194.5399434893158</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>594.2603172363632</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>527.2265162238737</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22559,10 +22561,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>138.2624865078655</v>
+        <v>377.6109376505927</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22600,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>220.9305176767169</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22838,7 +22840,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>136.3675239794915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.584269729476091</v>
       </c>
     </row>
     <row r="6">
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -23005,10 +23007,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>399.7283809904668</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.17187710393716</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>54.69040464721007</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.7202235216035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23668,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>99.27352434754019</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.2422569198551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.45031480042547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.84312462897441</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>156.3090506284035</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>96.14494677818641</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>103.802330371745</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.43728131980184</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>41.88054861921515</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>88.57144222862058</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.42449318090684</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>28.58776149813784</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>372.3797406844702</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>93.42449318090689</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.31312169923876</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513699.3383024838</v>
+        <v>744383.2430221241</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>513699.3383024837</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>513699.3383024838</v>
+        <v>782051.4023447529</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513699.3383024837</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782051.402344753</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.4023447527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782051.402344753</v>
+        <v>782051.4023447529</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>513699.3383024837</v>
+        <v>782051.402344753</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26319,16 @@
         <v>152207.2113488842</v>
       </c>
       <c r="D2" t="n">
-        <v>152207.2113488842</v>
+        <v>220557.9979324815</v>
       </c>
       <c r="E2" t="n">
-        <v>152207.2113488842</v>
+        <v>231718.934028075</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488842</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="G2" t="n">
-        <v>152207.2113488842</v>
+        <v>231718.9340280752</v>
       </c>
       <c r="H2" t="n">
         <v>231718.934028075</v>
@@ -26335,13 +26337,13 @@
         <v>231718.934028075</v>
       </c>
       <c r="J2" t="n">
-        <v>231718.9340280751</v>
+        <v>231718.934028075</v>
       </c>
       <c r="K2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="L2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="M2" t="n">
         <v>231718.934028075</v>
@@ -26350,10 +26352,10 @@
         <v>231718.9340280751</v>
       </c>
       <c r="O2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="P2" t="n">
-        <v>152207.2113488842</v>
+        <v>231718.9340280751</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="C4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="D4" t="n">
-        <v>433.9049324434263</v>
+        <v>695.4246239937677</v>
       </c>
       <c r="E4" t="n">
-        <v>433.9049324434263</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>433.9049324434264</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
-        <v>433.9049324434263</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
@@ -26445,19 +26447,19 @@
         <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="O4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="P4" t="n">
         <v>738.1279301446466</v>
-      </c>
-      <c r="O4" t="n">
-        <v>738.1279301446466</v>
-      </c>
-      <c r="P4" t="n">
-        <v>433.9049324434264</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-88551.26855517083</v>
       </c>
       <c r="C6" t="n">
-        <v>86404.24133794318</v>
+        <v>86404.24133794321</v>
       </c>
       <c r="D6" t="n">
-        <v>86404.24133794321</v>
+        <v>-50965.96695678104</v>
       </c>
       <c r="E6" t="n">
-        <v>120031.8413379432</v>
+        <v>133146.6416721229</v>
       </c>
       <c r="F6" t="n">
-        <v>120031.8413379432</v>
+        <v>160115.5958530572</v>
       </c>
       <c r="G6" t="n">
-        <v>120031.8413379432</v>
+        <v>160115.5958530572</v>
       </c>
       <c r="H6" t="n">
-        <v>-13501.81466659228</v>
+        <v>160115.5958530571</v>
       </c>
       <c r="I6" t="n">
+        <v>160115.595853057</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23520.7950471621</v>
+      </c>
+      <c r="K6" t="n">
         <v>160115.5958530571</v>
       </c>
-      <c r="J6" t="n">
-        <v>23520.79504716213</v>
-      </c>
-      <c r="K6" t="n">
-        <v>160115.5958530572</v>
-      </c>
       <c r="L6" t="n">
-        <v>160115.5958530571</v>
+        <v>20116.2849883044</v>
       </c>
       <c r="M6" t="n">
-        <v>160115.5958530571</v>
+        <v>137606.3310790096</v>
       </c>
       <c r="N6" t="n">
         <v>160115.5958530572</v>
       </c>
       <c r="O6" t="n">
-        <v>160115.5958530571</v>
+        <v>160115.5958530572</v>
       </c>
       <c r="P6" t="n">
-        <v>120031.8413379432</v>
+        <v>160115.5958530572</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26795,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34778,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8628411009269</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>203.2507825193992</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>442.6993269064101</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9700927793177</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>306.2096305948398</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>460.0037840019794</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>500.9700927793178</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>135.5987266329976</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>156.8878333182358</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793177</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>685.9925074875634</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>360.9878040976428</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>516.9120523430242</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363516</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.4254196784668</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>500.9700927793178</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>471.1119924130247</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_16.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>721648.7101564091</v>
+        <v>721648.710156409</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3772361.273823853</v>
+        <v>3772361.27382385</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51.24388571109842</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>27.03006361550342</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0299058421965</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.44800110537372</v>
       </c>
       <c r="Y5" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6909096174032561</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.390586877381511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>351.2228221674562</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>85.25432609134864</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>109.4288709699308</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2244,22 +2244,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>144.2018606410491</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2323,13 +2323,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.595211067239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.09736785857407</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6.782913860940753</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>12.3267041861244</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>308.3558640927702</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>65.42520756919177</v>
+        <v>14.36834313439011</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>63.20137170005468</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.99018014062471</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>136.1769805884548</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>351.2228221674562</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>159.6508749246524</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.1752199258842</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876.4530309326553</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C2" t="n">
-        <v>466.3284402459254</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="D2" t="n">
-        <v>466.3284402459254</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="E2" t="n">
-        <v>466.3284402459254</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>466.3284402459254</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
         <v>439.0253456848109</v>
@@ -4333,16 +4333,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>176.0078249962696</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.674210597145</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0154767040586</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>209.0154767040586</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>209.0154767040586</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.0154767040586</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1695.988587952916</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4609,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>2006.993674302957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.988587952916</v>
+        <v>2006.993674302957</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>187.8810127971426</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>187.8810127971426</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634679</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.93911629311</v>
+        <v>2151.160295957603</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.81452560638</v>
+        <v>1741.035705270873</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>1336.571775363934</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>922.2315598808304</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>501.201147834518</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>92.47286372735016</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="K8" t="n">
-        <v>524.2900591047148</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916953</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>2766.381066547328</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3410.011922964433</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>3939.168620883585</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4260.329627678877</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368438</v>
+        <v>4300.886273368442</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4165.605198162542</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>3943.398714109401</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>3686.338222368911</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3336.500667705392</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>2952.74036684056</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>2552.096969009513</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2151.160295957603</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.848567353903</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028488</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222412</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145692</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970738</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114125</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471286</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326674</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="L9" t="n">
-        <v>1202.912153651956</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1202.912153651956</v>
+        <v>1590.082978081224</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.956564145355</v>
+        <v>1590.082978081224</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.956564145355</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1782.662456633885</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
         <v>2132.506921317869</v>
@@ -4910,16 +4910,16 @@
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432177</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757404</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750438</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894897</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1175.351575768505</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214513</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320426</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="G10" t="n">
-        <v>351.971226557586</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4968,10 +4968,10 @@
         <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.5497028748778</v>
+        <v>514.5497028748779</v>
       </c>
       <c r="M10" t="n">
-        <v>803.813759315371</v>
+        <v>803.8137593153712</v>
       </c>
       <c r="N10" t="n">
         <v>1084.652541709621</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.416622088219</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.416622088219</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>1587.786980773785</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="Y10" t="n">
-        <v>1363.05128216255</v>
+        <v>86.01772546736883</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
         <v>93.2436976906228</v>
@@ -5123,22 +5123,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>93.2436976906228</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N15" t="n">
-        <v>966.9017898022406</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1536.527113411121</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1296.978374387823</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.978374387823</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V16" t="n">
-        <v>1023.092629327345</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W16" t="n">
-        <v>744.0229648362191</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X16" t="n">
-        <v>505.6791026959025</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="Y16" t="n">
-        <v>280.9434040846672</v>
+        <v>1111.429368843485</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
         <v>2139.066799289355</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>704.368908940975</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.027001052593</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>591.0821058804529</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>701.6163189813931</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
         <v>1435.775802995229</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5943,19 +5943,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.572457336103</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
         <v>899.2322418529996</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T25" t="n">
-        <v>4422.636145507842</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U25" t="n">
-        <v>4139.837998053967</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V25" t="n">
-        <v>3865.952252993488</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W25" t="n">
-        <v>3586.882588502363</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X25" t="n">
-        <v>3348.538726362046</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977907</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.2872908984635</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>790.2872908984635</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U28" t="n">
-        <v>1015.022989509699</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.022989509699</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W28" t="n">
-        <v>1015.022989509699</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X28" t="n">
-        <v>1015.022989509699</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y28" t="n">
-        <v>790.2872908984635</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6496,19 +6496,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4408.238733368956</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>604.9866295102167</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6788,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="C34" t="n">
         <v>1011.484175553476</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.012952997039</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>1023.935391903097</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>275.6758118380055</v>
+        <v>931.1375248150675</v>
       </c>
       <c r="C37" t="n">
-        <v>275.6758118380055</v>
+        <v>760.044152376784</v>
       </c>
       <c r="D37" t="n">
-        <v>275.6758118380055</v>
+        <v>600.549507699694</v>
       </c>
       <c r="E37" t="n">
-        <v>275.6758118380055</v>
+        <v>439.6386925680135</v>
       </c>
       <c r="F37" t="n">
-        <v>275.6758118380055</v>
+        <v>275.0075666786047</v>
       </c>
       <c r="G37" t="n">
-        <v>275.6758118380055</v>
+        <v>107.7571756041482</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>275.6758118380055</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X37" t="n">
-        <v>275.6758118380055</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y37" t="n">
-        <v>275.6758118380055</v>
+        <v>1118.837231209112</v>
       </c>
     </row>
     <row r="38">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>2945.549711724955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>3788.526792419522</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>4662.18488453114</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>3804.33374221528</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>3804.33374221528</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>3565.989880074963</v>
       </c>
     </row>
     <row r="41">
@@ -7438,10 +7438,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
         <v>4494.590496051882</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.13812587521</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.13812587521</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.13812587521</v>
+        <v>4137.972894620189</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>4137.972894620189</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1182.57754799176</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="E43" t="n">
         <v>691.0787157447054</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X43" t="n">
-        <v>1595.012952997039</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y43" t="n">
-        <v>1370.277254385804</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.585879914052</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>1274.245664430949</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>853.2152523846366</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>444.4869682774688</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7693,7 +7693,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
         <v>1198.623017005979</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>851.048725921115</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>679.9553534828315</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>520.4607088057414</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>520.4607088057414</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>520.4607088057414</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1297.821136963575</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>1015.022989509699</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>741.1372444492208</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W46" t="n">
-        <v>462.0675799580952</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X46" t="n">
-        <v>223.7237178177785</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>1038.748432315159</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>231.0841246958424</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8060,13 +8060,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M3" t="n">
-        <v>502.6011371814506</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,10 +8075,10 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>298.736180582244</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,16 +8294,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>203.4176284083937</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8312,13 +8312,13 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>531.8357165796273</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8464,7 +8464,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>752.8050676929106</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8534,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>71.42007065981008</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8771,25 +8771,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9008,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>97.38406848944746</v>
       </c>
       <c r="O15" t="n">
-        <v>675.0496721821739</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>214.4521170566532</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9488,10 +9488,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9722,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>574.4763360814417</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>377.9773729431616</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>841.9067396726143</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10436,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5399434893158</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>75.97815626606008</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>200.5303479970838</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -11387,10 +11387,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>458.6703921507826</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>358.9529276171738</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>377.6109376505927</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22612,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>220.9305176767169</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>316.1889627473632</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.584269729476091</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>399.7283809904668</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>301.4088255211777</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679175</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>99.27352434754019</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>76.39383836017318</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.893130557883893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>103.802330371745</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>162.5995248529599</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24852,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>157.0557345277763</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.57144222862058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>82.68617307340614</v>
+        <v>133.7430375082078</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>207.9455159098186</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>222.4997066824603</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>23.12472639190895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,10 +25851,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>5.92701223905965</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.31312169923876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513699.3383024837</v>
+        <v>513699.3383024838</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>744383.2430221241</v>
+        <v>744383.2430221245</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.4023447527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782051.402344753</v>
+        <v>782051.4023447529</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.4023447532</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782051.402344753</v>
+        <v>782051.4023447529</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782051.4023447527</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782051.402344753</v>
+        <v>782051.4023447529</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>220557.9979324815</v>
       </c>
       <c r="E2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="F2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="G2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="H2" t="n">
         <v>231718.9340280752</v>
       </c>
-      <c r="H2" t="n">
-        <v>231718.934028075</v>
-      </c>
       <c r="I2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="J2" t="n">
         <v>231718.934028075</v>
       </c>
       <c r="K2" t="n">
-        <v>231718.9340280751</v>
+        <v>231718.934028075</v>
       </c>
       <c r="L2" t="n">
         <v>231718.9340280751</v>
@@ -26349,10 +26349,10 @@
         <v>231718.934028075</v>
       </c>
       <c r="N2" t="n">
-        <v>231718.9340280751</v>
+        <v>231718.934028075</v>
       </c>
       <c r="O2" t="n">
-        <v>231718.9340280751</v>
+        <v>231718.9340280752</v>
       </c>
       <c r="P2" t="n">
         <v>231718.9340280751</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100685</v>
+        <v>171827.4689100687</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093424</v>
+        <v>26968.954180934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647527</v>
+        <v>139999.3108647529</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404744</v>
+        <v>22509.26477404723</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>433.9049324434263</v>
       </c>
       <c r="D4" t="n">
-        <v>695.4246239937677</v>
+        <v>695.4246239937683</v>
       </c>
       <c r="E4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="F4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
         <v>738.1279301446466</v>
@@ -26453,13 +26453,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446464</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520026</v>
+        <v>99001.07135520031</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88551.26855517083</v>
+        <v>-88551.26855517089</v>
       </c>
       <c r="C6" t="n">
-        <v>86404.24133794321</v>
+        <v>86404.24133794318</v>
       </c>
       <c r="D6" t="n">
-        <v>-50965.96695678104</v>
+        <v>-50965.96695678131</v>
       </c>
       <c r="E6" t="n">
-        <v>133146.6416721229</v>
+        <v>133146.6416721231</v>
       </c>
       <c r="F6" t="n">
         <v>160115.5958530572</v>
       </c>
       <c r="G6" t="n">
+        <v>160115.595853057</v>
+      </c>
+      <c r="H6" t="n">
         <v>160115.5958530572</v>
       </c>
-      <c r="H6" t="n">
-        <v>160115.5958530571</v>
-      </c>
       <c r="I6" t="n">
-        <v>160115.595853057</v>
+        <v>160115.5958530572</v>
       </c>
       <c r="J6" t="n">
-        <v>23520.7950471621</v>
+        <v>23520.79504716213</v>
       </c>
       <c r="K6" t="n">
         <v>160115.5958530571</v>
       </c>
       <c r="L6" t="n">
-        <v>20116.2849883044</v>
+        <v>20116.28498830416</v>
       </c>
       <c r="M6" t="n">
-        <v>137606.3310790096</v>
+        <v>137606.3310790099</v>
       </c>
       <c r="N6" t="n">
-        <v>160115.5958530572</v>
+        <v>160115.5958530571</v>
       </c>
       <c r="O6" t="n">
         <v>160115.5958530572</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720849</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067445</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720849</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067443</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720849</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067445</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34780,13 +34780,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346343</v>
       </c>
       <c r="M3" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>203.2507825193992</v>
-      </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>147.5918456237783</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>442.6993269064101</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35184,7 +35184,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>659.8927769362913</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>44.19067509569746</v>
       </c>
       <c r="O15" t="n">
-        <v>617.2981931821739</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>156.8878333182358</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36208,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>516.9120523430242</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.1515901585462</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>788.7133462788644</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.4254196784668</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>146.27071299428</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>405.4769987570326</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>721648.710156409</v>
+        <v>718835.7108921958</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.81102974</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3772361.27382385</v>
+        <v>3772361.273823852</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8481747.276878104</v>
+        <v>8481747.276878107</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>211.9521504345184</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24388571109842</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>168.1821651292107</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="X5" t="n">
-        <v>80.44800110537372</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>137.8797272855244</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1144,13 +1144,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>333.9177350155292</v>
       </c>
       <c r="H8" t="n">
-        <v>6.390586877381511</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>308.4960544879098</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.4288709699308</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
-        <v>243.833185100996</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.6280764465249</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.2018606410491</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9184445944652</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.43741174507654</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2952,10 +2952,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>6.782913860940753</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>12.3267041861244</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14.36834313439011</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.6594947773193</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>63.20137170005468</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>136.1769805884548</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>35.18862679370287</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,10 +4137,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>159.6508749246524</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>80.39790293131063</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.545542556572</v>
+        <v>670.1983823596936</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.545542556572</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.545542556572</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
         <v>1209.69369432892</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>1730.766722221062</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X2" t="n">
-        <v>1730.766722221062</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="Y2" t="n">
-        <v>1730.766722221062</v>
+        <v>1080.419562024183</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1025.008892784822</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1901.862513360013</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1662.313774336715</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1379.515626882839</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1379.515626882839</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>1209.634652004848</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>971.2907898645316</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>746.5550912532963</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1596.772494638468</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C5" t="n">
-        <v>1596.772494638468</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D5" t="n">
-        <v>1596.772494638468</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4573,16 +4573,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4606,13 +4606,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X5" t="n">
-        <v>2006.993674302957</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.993674302957</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2151.160295957603</v>
+        <v>1963.145600346251</v>
       </c>
       <c r="C8" t="n">
-        <v>1741.035705270873</v>
+        <v>1553.021009659521</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.571775363934</v>
+        <v>1148.557079752582</v>
       </c>
       <c r="E8" t="n">
-        <v>922.2315598808304</v>
+        <v>734.2168642694783</v>
       </c>
       <c r="F8" t="n">
-        <v>501.201147834518</v>
+        <v>734.2168642694783</v>
       </c>
       <c r="G8" t="n">
-        <v>92.47286372735016</v>
+        <v>396.9262228396508</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736883</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764083</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1336.768626388646</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2113.0872173804</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547328</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.011922964433</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883585</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678877</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368442</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162542</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109401</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368911</v>
+        <v>3908.544706422049</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705392</v>
+        <v>3558.70715175853</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.74036684056</v>
+        <v>3174.946850893698</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009513</v>
+        <v>2774.303453062651</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957603</v>
+        <v>2373.366780010741</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736883</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736883</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>1395.725011214589</v>
       </c>
       <c r="M9" t="n">
-        <v>1590.082978081224</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.082978081224</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="O9" t="n">
         <v>2132.506921317869</v>
@@ -4910,16 +4910,16 @@
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4968,10 +4968,10 @@
         <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.5497028748779</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153712</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
         <v>1084.652541709621</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1093.069735611045</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>819.1839905505669</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147512</v>
+        <v>540.1143260594413</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736883</v>
+        <v>301.7704639191247</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5077,16 +5077,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5223,25 +5223,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
         <v>93.2436976906228</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
         <v>93.2436976906228</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1392.027034650488</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1111.429368843485</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>1111.429368843485</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.429368843485</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.429368843485</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>591.0821058804529</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>419.9887334421693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1254.571728532997</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>980.6859834725187</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>701.6163189813931</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>701.6163189813931</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>701.6163189813931</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,13 +5779,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
         <v>4058.401178705436</v>
@@ -5831,19 +5831,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.3370701289063</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1216.424486346408</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1216.424486346408</v>
       </c>
       <c r="V22" t="n">
-        <v>1194.186001765628</v>
+        <v>942.5387412859304</v>
       </c>
       <c r="W22" t="n">
-        <v>915.1163372745027</v>
+        <v>663.4690767948048</v>
       </c>
       <c r="X22" t="n">
-        <v>676.772475134186</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.0367765229507</v>
+        <v>425.1252146544881</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6022,19 +6022,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.074801429505</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>1537.369875986873</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>1537.369875986873</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>1537.369875986873</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>1312.634177375637</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977907</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.24369769062287</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1579.776521841699</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1296.978374387823</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6496,19 +6496,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>604.9866295102167</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1266.074801429505</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>685.9422345323867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.4933690687955</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.935391903097</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.821136963575</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1297.821136963575</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1023.935391903097</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1023.935391903097</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.935391903097</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.935391903097</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.1375248150675</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>760.044152376784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>600.549507699694</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>439.6386925680135</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0075666786047</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>107.7571756041482</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.572929820347</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1118.837231209112</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3565.989880074963</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="C40" t="n">
-        <v>3565.989880074963</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="D40" t="n">
-        <v>3565.989880074963</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E40" t="n">
-        <v>3565.989880074963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>3868.173511609275</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>3804.33374221528</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W40" t="n">
-        <v>3804.33374221528</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X40" t="n">
-        <v>3565.989880074963</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y40" t="n">
-        <v>3565.989880074963</v>
+        <v>602.8791410455673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>3264.314802508572</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>3264.314802508572</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N42" t="n">
-        <v>4137.972894620189</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
-        <v>4137.972894620189</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>4282.780900484527</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>828.6312213896092</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C43" t="n">
-        <v>828.6312213896092</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D43" t="n">
-        <v>828.6312213896092</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>828.6312213896092</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W43" t="n">
-        <v>828.6312213896092</v>
+        <v>844.0228662086425</v>
       </c>
       <c r="X43" t="n">
-        <v>828.6312213896092</v>
+        <v>844.0228662086425</v>
       </c>
       <c r="Y43" t="n">
-        <v>828.6312213896092</v>
+        <v>619.2871675974072</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7648,7 +7648,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>741.8628115185547</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>851.048725921115</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="C46" t="n">
-        <v>679.9553534828315</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="D46" t="n">
-        <v>520.4607088057414</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="E46" t="n">
-        <v>520.4607088057414</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="F46" t="n">
-        <v>520.4607088057414</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>174.4537006515426</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V46" t="n">
-        <v>1263.484130926395</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W46" t="n">
-        <v>1263.484130926395</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X46" t="n">
-        <v>1263.484130926395</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.748432315159</v>
+        <v>362.153407045587</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
@@ -7987,10 +7987,10 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>394.1192645454833</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>363.773914333257</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8233,7 +8233,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>560.949698951924</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8464,7 +8464,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>752.8050676929106</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>801.7884353578918</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,7 +8777,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>75.79096100447751</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,10 +8786,10 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>97.38406848944746</v>
+        <v>797.4175450132245</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,19 +9716,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>574.4763360814417</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10193,16 +10193,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>377.9773729431616</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>200.5303479970838</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>194.0711943453442</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>358.9529276171738</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22615,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>108.0968027170036</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22846,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>360.0242673938929</v>
       </c>
       <c r="X5" t="n">
-        <v>316.1889627473632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>142.0904386938127</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>70.72326625056695</v>
       </c>
       <c r="H8" t="n">
-        <v>301.4088255211777</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884604</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>37.84312462897429</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>70.43669735679175</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.39383836017318</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24138,10 +24138,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24177,16 +24177,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>19.52517518654003</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>88.57144222861982</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24654,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>162.5995248529599</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24852,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>157.0557345277763</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>133.7430375082078</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>6.163214552784638</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,7 +25557,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>207.9455159098186</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>23.12472639190895</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>241.0903410525115</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>5.92701223905965</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>67.71347771128728</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513699.3383024838</v>
+        <v>513699.3383024837</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>744383.2430221245</v>
+        <v>744383.2430221241</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782051.4023447527</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782051.4023447532</v>
+        <v>782051.4023447528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782051.4023447528</v>
+        <v>782051.402344753</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782051.4023447529</v>
+        <v>782051.402344753</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="C2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="D2" t="n">
-        <v>220557.9979324815</v>
+        <v>220557.9979324814</v>
       </c>
       <c r="E2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="F2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="G2" t="n">
         <v>231718.9340280751</v>
       </c>
-      <c r="G2" t="n">
-        <v>231718.934028075</v>
-      </c>
       <c r="H2" t="n">
-        <v>231718.9340280752</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="I2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="J2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="K2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="L2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="M2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="N2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="O2" t="n">
-        <v>231718.9340280752</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="P2" t="n">
         <v>231718.9340280751</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100687</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.954180934</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647529</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404723</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>433.9049324434263</v>
+      </c>
+      <c r="C4" t="n">
         <v>433.9049324434264</v>
       </c>
-      <c r="C4" t="n">
-        <v>433.9049324434263</v>
-      </c>
       <c r="D4" t="n">
-        <v>695.4246239937683</v>
+        <v>695.4246239937677</v>
       </c>
       <c r="E4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
         <v>738.1279301446466</v>
@@ -26438,13 +26438,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
         <v>738.1279301446466</v>
@@ -26456,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520031</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88551.26855517089</v>
+        <v>-89228.79741456496</v>
       </c>
       <c r="C6" t="n">
-        <v>86404.24133794318</v>
+        <v>85726.7124785491</v>
       </c>
       <c r="D6" t="n">
-        <v>-50965.96695678131</v>
+        <v>-51216.30340002769</v>
       </c>
       <c r="E6" t="n">
-        <v>133146.6416721231</v>
+        <v>132966.0610794738</v>
       </c>
       <c r="F6" t="n">
-        <v>160115.5958530572</v>
+        <v>159935.015260408</v>
       </c>
       <c r="G6" t="n">
-        <v>160115.595853057</v>
+        <v>159935.0152604081</v>
       </c>
       <c r="H6" t="n">
-        <v>160115.5958530572</v>
+        <v>159935.015260408</v>
       </c>
       <c r="I6" t="n">
-        <v>160115.5958530572</v>
+        <v>159935.015260408</v>
       </c>
       <c r="J6" t="n">
-        <v>23520.79504716213</v>
+        <v>23340.21445451306</v>
       </c>
       <c r="K6" t="n">
-        <v>160115.5958530571</v>
+        <v>159935.0152604081</v>
       </c>
       <c r="L6" t="n">
-        <v>20116.28498830416</v>
+        <v>19935.70439565527</v>
       </c>
       <c r="M6" t="n">
-        <v>137606.3310790099</v>
+        <v>137425.7504863606</v>
       </c>
       <c r="N6" t="n">
-        <v>160115.5958530571</v>
+        <v>159935.0152604081</v>
       </c>
       <c r="O6" t="n">
-        <v>160115.5958530572</v>
+        <v>159935.0152604081</v>
       </c>
       <c r="P6" t="n">
-        <v>160115.5958530572</v>
+        <v>159935.0152604081</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720849</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067445</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720849</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067443</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720849</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067445</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34953,7 +34953,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>506.6900639491203</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35184,7 +35184,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>659.8927769362913</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194744</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,7 +35497,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>18.22667726606008</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44.19067509569746</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>516.9120523430242</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>322.1515901585462</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>146.27071299428</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
